--- a/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,34 +22,52 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>007381</t>
+  </si>
+  <si>
+    <t>000166</t>
+  </si>
+  <si>
+    <t>006231</t>
+  </si>
+  <si>
+    <t>007382</t>
+  </si>
+  <si>
     <t>006009</t>
   </si>
   <si>
     <t>006010</t>
   </si>
   <si>
-    <t>006231</t>
-  </si>
-  <si>
     <t>006232</t>
   </si>
   <si>
-    <t>000166</t>
-  </si>
-  <si>
-    <t>007381</t>
-  </si>
-  <si>
-    <t>007382</t>
+    <t>国融融信消费严选混合A</t>
+  </si>
+  <si>
+    <t>中海信息产业精选混合</t>
+  </si>
+  <si>
+    <t>国融融君灵活配置混合A</t>
+  </si>
+  <si>
+    <t>国融融信消费严选混合C</t>
   </si>
   <si>
     <t>国融融银灵活配置混合A</t>
@@ -58,43 +76,67 @@
     <t>国融融银灵活配置混合C</t>
   </si>
   <si>
-    <t>国融融君灵活配置混合A</t>
-  </si>
-  <si>
     <t>国融融君灵活配置混合C</t>
   </si>
   <si>
-    <t>中海信息产业精选混合</t>
-  </si>
-  <si>
-    <t>国融融信消费严选混合A</t>
-  </si>
-  <si>
-    <t>国融融信消费严选混合C</t>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>84.84</t>
+  </si>
+  <si>
+    <t>56.97</t>
+  </si>
+  <si>
+    <t>84.76</t>
   </si>
   <si>
     <t>76.25</t>
   </si>
   <si>
-    <t>84.76</t>
-  </si>
-  <si>
-    <t>56.97</t>
-  </si>
-  <si>
-    <t>84.84</t>
+    <t>5.98</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>5.99</t>
   </si>
   <si>
     <t>6.10</t>
   </si>
   <si>
-    <t>5.99</t>
-  </si>
-  <si>
-    <t>3.21</t>
-  </si>
-  <si>
-    <t>5.98</t>
+    <t>0.0389</t>
+  </si>
+  <si>
+    <t>0.0318</t>
+  </si>
+  <si>
+    <t>0.0090</t>
+  </si>
+  <si>
+    <t>0.0054</t>
+  </si>
+  <si>
+    <t>0.0018</t>
+  </si>
+  <si>
+    <t>0.0006</t>
   </si>
 </sst>
 </file>
@@ -452,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,145 +516,190 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
@@ -1,174 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>007381</t>
-  </si>
-  <si>
-    <t>000166</t>
-  </si>
-  <si>
-    <t>006231</t>
-  </si>
-  <si>
-    <t>007382</t>
-  </si>
-  <si>
-    <t>006009</t>
-  </si>
-  <si>
-    <t>006010</t>
-  </si>
-  <si>
-    <t>006232</t>
-  </si>
-  <si>
-    <t>国融融信消费严选混合A</t>
-  </si>
-  <si>
-    <t>中海信息产业精选混合</t>
-  </si>
-  <si>
-    <t>国融融君灵活配置混合A</t>
-  </si>
-  <si>
-    <t>国融融信消费严选混合C</t>
-  </si>
-  <si>
-    <t>国融融银灵活配置混合A</t>
-  </si>
-  <si>
-    <t>国融融银灵活配置混合C</t>
-  </si>
-  <si>
-    <t>国融融君灵活配置混合C</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>84.84</t>
-  </si>
-  <si>
-    <t>56.97</t>
-  </si>
-  <si>
-    <t>84.76</t>
-  </si>
-  <si>
-    <t>76.25</t>
-  </si>
-  <si>
-    <t>5.98</t>
-  </si>
-  <si>
-    <t>3.21</t>
-  </si>
-  <si>
-    <t>5.99</t>
-  </si>
-  <si>
-    <t>6.10</t>
-  </si>
-  <si>
-    <t>0.0389</t>
-  </si>
-  <si>
-    <t>0.0318</t>
-  </si>
-  <si>
-    <t>0.0090</t>
-  </si>
-  <si>
-    <t>0.0054</t>
-  </si>
-  <si>
-    <t>0.0018</t>
-  </si>
-  <si>
-    <t>0.0006</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -493,216 +446,410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -852,4 +853,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1251,4 +1252,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1260,7 +1261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,17 +1272,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1291,14 +1312,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.93</v>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3380</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1307,14 +1350,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1323,13 +1388,629 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1925,7 +1926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1936,17 +1937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1956,14 +1977,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.37</v>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1972,14 +2015,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.93</v>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1988,14 +2053,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2004,13 +2091,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>46.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2438,7 +2439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2449,17 +2450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2469,14 +2490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.21</v>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2485,14 +2528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.37</v>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2501,14 +2566,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.93</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="5">
@@ -2517,14 +2688,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="6">
@@ -2533,13 +2704,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,312 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007381</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国融融信消费严选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0389</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000166</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中海信息产业精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>56.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0318</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006231</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国融融君灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007382</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国融融信消费严选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006009</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国融融银灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>76.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国融融银灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>76.25</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006232</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国融融君灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
+      <c r="D7" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -771,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -822,35 +639,111 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162212</t>
+          <t>202019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利红利先锋混合</t>
+          <t>南方策略优化混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.04</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0230</t>
+          <t>0.0840</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -865,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -886,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -916,22 +809,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.96</t>
+          <t>16.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>87.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -941,11 +834,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2566</t>
+          <t>0.3293</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -954,36 +847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>002076</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>浙商中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>14.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2063</t>
+          <t>0.2136</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -992,36 +885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005994</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强A</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1246</t>
+          <t>0.1702</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1030,36 +923,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001050</t>
+          <t>005994</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富成长多因子量化策略股票</t>
+          <t>国投瑞银中证500指数量化增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0979</t>
+          <t>0.1683</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1068,36 +961,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002871</t>
+          <t>008851</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏智胜价值成长股票A</t>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>74.55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0787</t>
+          <t>0.0798</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1106,36 +999,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002872</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏智胜价值成长股票C</t>
+          <t>申万菱信量化小盘股票(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>92.25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0613</t>
+          <t>0.0767</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1154,26 +1047,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0600</t>
+          <t>0.0558</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1182,36 +1075,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001219</t>
+          <t>007386</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上投摩根动态多因子策略混合</t>
+          <t>浙商中证500指数增强C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0390</t>
+          <t>0.0497</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1220,36 +1113,150 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005120</t>
+          <t>005258</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
+          <t>景顺长城量化平衡灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0397</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>46.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1927,7 +1934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1948,7 +1955,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1978,22 +1985,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.63</t>
+          <t>12.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.75</t>
+          <t>92.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2003,11 +2010,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3293</t>
+          <t>0.2566</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2016,36 +2023,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强A</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.53</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2136</t>
+          <t>0.2063</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2054,36 +2061,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>005994</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>国投瑞银中证500指数量化增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1702</t>
+          <t>0.1246</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2092,36 +2099,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005994</t>
+          <t>001050</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强A</t>
+          <t>汇添富成长多因子量化策略股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1683</t>
+          <t>0.0979</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2130,36 +2137,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008851</t>
+          <t>002871</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+          <t>华夏智胜价值成长股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>74.55</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0798</t>
+          <t>0.0787</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2168,36 +2175,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>002872</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>华夏智胜价值成长股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0767</t>
+          <t>0.0613</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2216,26 +2223,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0558</t>
+          <t>0.0600</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2244,36 +2251,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007386</t>
+          <t>001219</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强C</t>
+          <t>上投摩根动态多因子策略混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0497</t>
+          <t>0.0390</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2282,150 +2289,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005258</t>
+          <t>005120</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城量化平衡灵活配置混合</t>
+          <t>上投摩根量化多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0397</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011731</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国投瑞银安睿混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>43.48</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011732</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国投瑞银安睿混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>43.48</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006201</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>景顺长城量化先锋混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>46.30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2439,7 +2332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2460,7 +2353,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2490,111 +2383,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>202019</t>
+          <t>162212</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方策略优化混合</t>
+          <t>泰达宏利红利先锋混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>92.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0840</t>
+          <t>0.0230</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>012977</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012978</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2609,128 +2426,311 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.09</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600373-中文传媒.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.21</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.93</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1264,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1928,7 +2077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2326,7 +2475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2420,7 +2569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
